--- a/biology/Zoologie/Draculoides/Draculoides.xlsx
+++ b/biology/Zoologie/Draculoides/Draculoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Draculoides est un genre de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie-Occidentale[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie-Occidentale,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Schizomids of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Schizomids of the World (version 1.0) :
 Draculoides bramstokeri Harvey &amp; Humphreys, 1995
 Draculoides brooksi Harvey, 2001
 Draculoides julianneae Harvey, 2001
@@ -604,9 +620,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paradraculoides[3] a été placé en synonymie par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paradraculoides a été placé en synonymie par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019.
 </t>
         </is>
       </c>
@@ -635,7 +653,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Harvey, 1992 : « The Schizomida (Chelicerata) of Australia. » Invertebrate Taxonomy, vol. 6, no 1, p. 77-129.</t>
         </is>
